--- a/biology/Zoologie/Chimère_de_Haeckel/Chimère_de_Haeckel.xlsx
+++ b/biology/Zoologie/Chimère_de_Haeckel/Chimère_de_Haeckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chim%C3%A8re_de_Haeckel</t>
+          <t>Chimère_de_Haeckel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harriotta haeckeli
 La Chimère de Haeckel (Harriotta haeckeli) est une espèce de chimères vivant dans les abysses.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chim%C3%A8re_de_Haeckel</t>
+          <t>Chimère_de_Haeckel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chimère de Haeckel se rencontre à une profondeur de 1 400 à 2 600 m aux latitudes comprises entre 30°N et 46°S[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chimère de Haeckel se rencontre à une profondeur de 1 400 à 2 600 m aux latitudes comprises entre 30°N et 46°S.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chim%C3%A8re_de_Haeckel</t>
+          <t>Chimère_de_Haeckel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chimère de Haeckel peut mesurer jusqu'à 74 cm pour les mâles[1]. C'est une espèce ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chimère de Haeckel peut mesurer jusqu'à 74 cm pour les mâles. C'est une espèce ovipare.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chim%C3%A8re_de_Haeckel</t>
+          <t>Chimère_de_Haeckel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, haeckeli, ainsi que son nom vernaculaire, « de Haeckel », lui ont été donnés en l'honneur d’Ernst Haeckel (1834-1919) qui a collecté le spécimen décrit[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, haeckeli, ainsi que son nom vernaculaire, « de Haeckel », lui ont été donnés en l'honneur d’Ernst Haeckel (1834-1919) qui a collecté le spécimen décrit.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chim%C3%A8re_de_Haeckel</t>
+          <t>Chimère_de_Haeckel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Christine Karrer, « Die Gattung Harriotta Goode and Bean, 1895 (Chondrichthyes, Chimaeriformes, Rhinochimaeridae). Mit Beschreibung einer neuen Art aus dem Nordatlantik », Mitteilungen aus dem Zoologischen Museum in Berlin, Berlin, Inconnu, vol. 48, no 1,‎ 1972, p. 203-221 (ISSN 0373-8493, OCLC 9938158, DOI 10.1002/MMNZ.4830480110)</t>
         </is>
